--- a/biology/Zoologie/Galathea_balssi/Galathea_balssi.xlsx
+++ b/biology/Zoologie/Galathea_balssi/Galathea_balssi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galathée rouge
 Galathea balssi, communément appelé la Galathée rouge, est une espèce de crustacés marins décapodes de la famille des Galatheidae.
-La Galathée rouge est présente dans les eaux tropicales du centre de l'Indo-Pacifique[1].
+La Galathée rouge est présente dans les eaux tropicales du centre de l'Indo-Pacifique.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Galathea balssi est un crustacé de petite taille pouvant atteindre 10 mm de long pour la carapace en incluant le rostre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Galathea balssi est un crustacé de petite taille pouvant atteindre 10 mm de long pour la carapace en incluant le rostre.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, balssi, lui a été donné en l'honneur d'Heinrich Balss (1886-1957), zoologiste allemand qui avait décrit l'holotype sous le taxon Galathea australiensis en 1913 (nom déjà occupé par Galathea australiensis Stimpson, 1858)[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, balssi, lui a été donné en l'honneur d'Heinrich Balss (1886-1957), zoologiste allemand qui avait décrit l'holotype sous le taxon Galathea australiensis en 1913 (nom déjà occupé par Galathea australiensis Stimpson, 1858). 
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Sadayoshi Miyake et Keiji Baba, « Two new species of Galathea from Japan and the East China Sea », Kyushu University. Faculty of Agriculture. Journal, Université de Kyūshū, vol. 13, no 1,‎ 30 mars 1964, p. 205-211 (ISSN 0023-6152 et 2433-488X, DOI 10.5109/22719, lire en ligne)</t>
         </is>
